--- a/アルバム情報_単体テスト.xlsx
+++ b/アルバム情報_単体テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B6B6B8E-7A74-41BB-BC70-DDD55BFFB693}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF9DBD1-06C0-4C93-B91B-2398B48C5A73}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -319,33 +319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>blog-info.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ログインしない状態で、blog-info.phpをURLに直打ちする</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>チョクウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アルバム一覧画面からブログを選択する</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.アルバム情報画面に遷移</t>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
@@ -363,6 +336,73 @@
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが発生した場合、「エラーが発生したためアルバム情報が取得できませんでした。」の表示</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント情報画面にアクセスする</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したためアルバム情報が取得できませんでした。」</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム一覧画面からアルバムを選択する</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、album-info.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>album-info.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1112,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1166,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1215,13 +1255,13 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4">
-        <v>45994</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -1234,7 +1274,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -1253,13 +1293,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="4">
-        <v>45994</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
@@ -1272,7 +1312,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1291,13 +1331,13 @@
         <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4">
-        <v>45994</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
@@ -1310,7 +1350,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1329,13 +1369,13 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="4">
-        <v>45994</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>17</v>
@@ -1348,7 +1388,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1367,13 +1407,13 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="4">
-        <v>45998</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
@@ -1386,7 +1426,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1405,13 +1445,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45994</v>
+        <v>41</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>17</v>
@@ -1424,7 +1464,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1443,13 +1483,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="4">
-        <v>45994</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>17</v>
@@ -1479,13 +1519,13 @@
         <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="4">
-        <v>45994</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>17</v>
@@ -1502,6 +1542,44 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
